--- a/d_i_s_schedule.xlsx
+++ b/d_i_s_schedule.xlsx
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P33</t>
+          <t>P32</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -490,13 +490,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E2" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F2" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -508,7 +508,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P34</t>
+          <t>P31</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -517,16 +517,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E3" t="n">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="F3" t="n">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -538,7 +538,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>P32</t>
+          <t>P30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -547,16 +547,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="D4" t="n">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="E4" t="n">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="F4" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -568,7 +568,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P31</t>
+          <t>P38</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -577,16 +577,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="D5" t="n">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="F5" t="n">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -598,7 +598,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>P38</t>
+          <t>P36</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -607,16 +607,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E6" t="n">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="F6" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -628,7 +628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>P36</t>
+          <t>P37</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -637,16 +637,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="D7" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E7" t="n">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="F7" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -658,7 +658,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>P37</t>
+          <t>P35</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="F8" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>P35</t>
+          <t>P39</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -697,13 +697,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="F9" t="n">
         <v>173</v>
@@ -718,7 +718,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>P39</t>
+          <t>P40</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -727,16 +727,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="F10" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -748,25 +748,25 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>P40</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>L2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>8</v>
       </c>
       <c r="E11" t="n">
-        <v>156</v>
+        <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>174</v>
+        <v>49</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -778,7 +778,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,28 +787,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G12" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -817,16 +817,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="F13" t="n">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>P12</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -847,28 +847,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="E14" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F14" t="n">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>P15</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -877,16 +877,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="F15" t="n">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P16</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -907,16 +907,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E16" t="n">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="F16" t="n">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -928,7 +928,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P20</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="D17" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F17" t="n">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>P15</t>
+          <t>P25</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -967,16 +967,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="F18" t="n">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -988,7 +988,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>P20</t>
+          <t>P27</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -997,28 +997,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="E19" t="n">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="F19" t="n">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>P14</t>
+          <t>P28</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1027,136 +1027,136 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="D20" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E20" t="n">
-        <v>98</v>
+        <v>173</v>
       </c>
       <c r="F20" t="n">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>P23</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>L3</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>66</v>
+        <v>159</v>
       </c>
       <c r="E21" t="n">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F21" t="n">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="G21" t="n">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="H21" t="n">
-        <v>2100</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>P22</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>L4</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>165</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="G22" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>P30</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>L4</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>165</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>223</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="G23" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P12</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>L3</t>
+          <t>L4</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F24" t="n">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1168,25 +1168,25 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P13</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>L3</t>
+          <t>L4</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F25" t="n">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1198,25 +1198,25 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>L3</t>
+          <t>L4</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="E26" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="F26" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1228,25 +1228,25 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>L3</t>
+          <t>L4</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="F27" t="n">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1258,25 +1258,25 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>L3</t>
+          <t>L4</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="F28" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1288,25 +1288,25 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>L3</t>
+          <t>L4</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="D29" t="n">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="E29" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F29" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1318,25 +1318,25 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>P16</t>
+          <t>P19</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>L3</t>
+          <t>L4</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D30" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F30" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1348,55 +1348,55 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>P25</t>
+          <t>P21</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>L3</t>
+          <t>L4</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D31" t="n">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="E31" t="n">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="F31" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>P26</t>
+          <t>P17</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>L3</t>
+          <t>L5</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="E32" t="n">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="F32" t="n">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1408,25 +1408,25 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>P28</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>L3</t>
+          <t>L5</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="D33" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E33" t="n">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="F33" t="n">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1438,37 +1438,37 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>P22</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>L4</t>
+          <t>L5</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="D34" t="n">
-        <v>159</v>
+        <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="F34" t="n">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="G34" t="n">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>2675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>P17</t>
+          <t>P26</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="D35" t="n">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="E35" t="n">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="F35" t="n">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1498,7 +1498,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>P19</t>
+          <t>P33</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1507,58 +1507,58 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="D36" t="n">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="E36" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="F36" t="n">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>P27</t>
+          <t>P18</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>L5</t>
+          <t>L6</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="E37" t="n">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="F37" t="n">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="G37" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>P18</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1567,28 +1567,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D38" t="n">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E38" t="n">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="F38" t="n">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>P24</t>
+          <t>P29</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1597,28 +1597,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="D39" t="n">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="E39" t="n">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="F39" t="n">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="G39" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H39" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>P21</t>
+          <t>P23</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1630,25 +1630,25 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="E40" t="n">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="F40" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>P29</t>
+          <t>P34</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="D41" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E41" t="n">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="F41" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
